--- a/GUI + Reviews/202509/EUSP.xlsx
+++ b/GUI + Reviews/202509/EUSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADC9D8F-141F-4625-890F-1A01B139970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F70D1E-3560-4633-A50D-8AE4D00F6CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{512E0D8B-7EFA-4040-9B2C-B48CFE6E2674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1064CB4D-5544-470B-961D-7D39D3E2AB3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3656,22 +3656,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A22D9D8B-754F-45C9-BC90-874BF773151A}" name="Universe" displayName="Universe" ref="A1:M364" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M364" xr:uid="{A22D9D8B-754F-45C9-BC90-874BF773151A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92E55352-DD79-4067-91F1-2596E7CD78CA}" name="Universe" displayName="Universe" ref="A1:M364" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:M364" xr:uid="{92E55352-DD79-4067-91F1-2596E7CD78CA}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{03383E13-BBDF-4E53-AFE1-54094CD8838B}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{33391E47-F4C8-45D1-9BAE-48114B6E1D61}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0D136A4C-9262-427E-B18F-460B758B035E}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{A1B66372-99BF-4AA7-949E-2983BBCA648D}" name="MIC" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{D99416CE-D184-4F85-AF2F-394675FCFB1E}" name="Currency (Local)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{65D719CA-133E-4701-A4A9-D38EC7CA680E}" name="Price (EUR) " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{8D1FE77D-D3E4-4F66-BE5A-D9A61B7D6F75}" name="NOSH" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{CEF38182-CEEA-4B7D-9844-664D77CCA399}" name="20 days AVG turnover EUR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{0CC0FE09-27B4-4A81-B83E-768667376850}" name="3M AVG Turnover EUR" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{D9ECD3DD-CE77-4056-8956-F12783668368}" name="3M AVG Turnover USD" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{2644E088-CE6F-4D2B-AEE8-A1B4A3ED0BFD}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{45BCA44D-1E68-4D83-9953-65F87C6845D3}" name="6M AVG Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{E3341CFA-0E8D-44B1-BD67-B27F42194170}" name="12M AVG Turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{485F225E-C0E1-44A7-A206-930279232FE9}" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{1A864060-4582-46BE-B3FA-D4E46C76EDB2}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4B5DEEEA-44DC-4441-9F10-C541E6951396}" name="ISIN" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{3F008C56-A0BA-4394-B3B9-7DB30A78E2B9}" name="MIC" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{11CAF59F-92E2-4D5F-A7E9-5E49C55DC68A}" name="Currency (Local)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{230749F8-9D1B-45A3-85E6-10CF65C2EB92}" name="Price (EUR) " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{EF56F1B4-AB07-4413-BE74-048E30FC9CCE}" name="NOSH" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{51A12779-DEB6-432D-BAF0-BB273AF54F65}" name="20 days AVG turnover EUR" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{DC8A55A3-A3DE-4879-9663-755303405613}" name="3M AVG Turnover EUR" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{0FC72B06-734C-4E7E-834C-3F117EB3108C}" name="3M AVG Turnover USD" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{8CC62A01-145E-4A9B-B7C6-F72C9FE89582}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{3D979FC5-139D-4F48-96D3-4DD877EBE67B}" name="6M AVG Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{182EEAC6-4BBC-4C65-9C8F-F0E1254FAB30}" name="12M AVG Turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3993,7 +3993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAB9D5-0DDE-45B5-8EF4-18121CCD8CF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FB2ABB-4F20-4C58-8CC2-9483D235AB3F}">
   <dimension ref="A1:M364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
